--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2397946.738483408</v>
+        <v>2502180.446876856</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12502432.03437992</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9244700.033388076</v>
+        <v>9253612.924639683</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>115.3209310045223</v>
       </c>
       <c r="X2" t="n">
-        <v>36.32707961669788</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>57.53695119582266</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>191.1924583607142</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>360.4002717343294</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>133.2099892451637</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111.9187566128691</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,16 +1110,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>221.6357247538199</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>97.67927988550986</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>258.6919098036071</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>143.4669119104433</v>
       </c>
       <c r="H10" t="n">
-        <v>136.4110798998861</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>194.4027115485082</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>25.52471385612597</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>134.1177455876056</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>102.1656705247866</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>61.97958965902473</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,10 +2058,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.799772605716619</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>133.3133845470784</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>19.91555826189101</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>19.88691958258289</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>126.9263824507431</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>263.7048265736561</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2950,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>67.10592483573218</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.08971311158751</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>60.6471314173121</v>
+        <v>106.3612762946744</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>42.53134576113725</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7058473537592</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>18.66234525555492</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3946,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>222.0602598600179</v>
       </c>
       <c r="V43" t="n">
-        <v>147.2606364488714</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>9.146142788180832</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>59.45282559760504</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>1101.143993102105</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>732.1814761616938</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>366.9702768057398</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794326</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524211</v>
+        <v>1861.209591427307</v>
       </c>
       <c r="X2" t="n">
-        <v>2366.344253709365</v>
+        <v>1487.743833166227</v>
       </c>
       <c r="Y2" t="n">
-        <v>1976.204921733553</v>
+        <v>1487.743833166227</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>441.4795254635164</v>
+        <v>812.8918298888575</v>
       </c>
       <c r="C4" t="n">
-        <v>272.5433425356096</v>
+        <v>812.8918298888575</v>
       </c>
       <c r="D4" t="n">
-        <v>272.5433425356096</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="E4" t="n">
-        <v>124.6302489532164</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F4" t="n">
-        <v>124.6302489532164</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G4" t="n">
-        <v>124.6302489532164</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>124.6302489532164</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1443.322424760645</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.594608541191</v>
+        <v>1443.322424760645</v>
       </c>
       <c r="V4" t="n">
-        <v>1071.910120335304</v>
+        <v>1443.322424760645</v>
       </c>
       <c r="W4" t="n">
-        <v>1071.910120335304</v>
+        <v>1443.322424760645</v>
       </c>
       <c r="X4" t="n">
-        <v>843.9205694372863</v>
+        <v>1215.332873862627</v>
       </c>
       <c r="Y4" t="n">
-        <v>623.1279902937562</v>
+        <v>994.5402947190972</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221569</v>
+        <v>1252.833343223197</v>
       </c>
       <c r="C5" t="n">
-        <v>1012.316163281157</v>
+        <v>1252.833343223197</v>
       </c>
       <c r="D5" t="n">
-        <v>654.0504646744068</v>
+        <v>894.5676446164464</v>
       </c>
       <c r="E5" t="n">
-        <v>654.0504646744068</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>243.0645598847993</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4562,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136267</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792697</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522582</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261502</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285691</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="6">
@@ -4635,25 +4637,25 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>477.7578170212613</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="C7" t="n">
-        <v>477.7578170212613</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
         <v>477.7578170212613</v>
@@ -4720,7 +4722,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368017</v>
+        <v>1289.967579036543</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621301</v>
+        <v>1289.967579036543</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251695</v>
+        <v>1000.550408999582</v>
       </c>
       <c r="X7" t="n">
-        <v>590.8070661251695</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="Y7" t="n">
-        <v>590.8070661251695</v>
+        <v>772.5608581015648</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1642.97267519901</v>
+        <v>1458.811090838976</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.010158258598</v>
+        <v>1089.848573898564</v>
       </c>
       <c r="D8" t="n">
-        <v>915.7444596518478</v>
+        <v>731.5828752918135</v>
       </c>
       <c r="E8" t="n">
-        <v>915.7444596518478</v>
+        <v>345.7946226935692</v>
       </c>
       <c r="F8" t="n">
-        <v>504.7585548622403</v>
+        <v>338.8491219443658</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>327.8170758297663</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4817,13 +4819,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609172</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794326</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524211</v>
+        <v>2609.016021139989</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.572515263132</v>
+        <v>2235.550262878909</v>
       </c>
       <c r="Y8" t="n">
-        <v>2029.572515263132</v>
+        <v>1845.410930903097</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>618.4760397199826</v>
+        <v>753.6735467432887</v>
       </c>
       <c r="C10" t="n">
-        <v>449.5398567920757</v>
+        <v>753.6735467432887</v>
       </c>
       <c r="D10" t="n">
-        <v>449.5398567920757</v>
+        <v>603.556907330953</v>
       </c>
       <c r="E10" t="n">
-        <v>301.6267632096826</v>
+        <v>455.6438137485599</v>
       </c>
       <c r="F10" t="n">
-        <v>301.6267632096826</v>
+        <v>308.7538662506495</v>
       </c>
       <c r="G10" t="n">
-        <v>301.6267632096826</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1356.675339798491</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W10" t="n">
-        <v>1067.25816976153</v>
+        <v>935.3220115735285</v>
       </c>
       <c r="X10" t="n">
-        <v>839.2686188635128</v>
+        <v>935.3220115735285</v>
       </c>
       <c r="Y10" t="n">
-        <v>618.4760397199826</v>
+        <v>935.3220115735285</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,7 +5053,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5066,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>228.9331431646413</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K12" t="n">
-        <v>562.8579153358619</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L12" t="n">
-        <v>1058.183521551621</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M12" t="n">
-        <v>1655.562009178173</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>2283.159972732779</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="14">
@@ -5270,31 +5272,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5303,13 +5305,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5349,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171301</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892232</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>414.4022433768874</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>266.4891497944943</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>119.599202296584</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>119.599202296584</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>119.599202296584</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5464,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>1008.811725321348</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>788.0191461778176</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,34 +5533,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>2726.914133601549</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>3324.292621228101</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>3951.890584782708</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>3997.30868757553</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>4420.931837070598</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958739</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C19" t="n">
-        <v>699.7311804011399</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888042</v>
+        <v>618.4214495336224</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>470.5083559512293</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>323.6184084533189</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>156.4223091681989</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369644</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261136</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5744,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803938</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>842.6091804069456</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851783</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>964.4894946679487</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797068</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819251</v>
+        <v>95.3409563819248</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6014,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474266</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E25" t="n">
-        <v>113.9333885650335</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>964.4894946679487</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,31 +6244,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2757.723669558406</v>
+        <v>2962.420792735044</v>
       </c>
       <c r="C28" t="n">
-        <v>2629.515202436443</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="D28" t="n">
-        <v>2479.398563024107</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="E28" t="n">
-        <v>2479.398563024107</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="F28" t="n">
-        <v>2479.398563024107</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024107</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305901</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328842</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.25592267304</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467153</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430193</v>
+        <v>3411.202922776591</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>3183.213371878574</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>2962.420792735044</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6461,22 +6463,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1620.602091394371</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1331.18492135741</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1103.195370459393</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>882.4027913158625</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6716,34 +6718,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327652</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048583</v>
+        <v>748.5648313007904</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925226</v>
+        <v>598.4481918884546</v>
       </c>
       <c r="E34" t="n">
-        <v>296.7882229101294</v>
+        <v>450.5350983060615</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741513</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704552</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806535</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630049</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="35">
@@ -6929,37 +6931,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,7 +6973,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,46 +7077,46 @@
         <v>527.7722521572603</v>
       </c>
       <c r="D37" t="n">
-        <v>527.7722521572603</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
@@ -7160,43 +7162,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>651.5752442188632</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>503.6621506364701</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,31 +7429,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>2567.280686761779</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>3062.606292977538</v>
       </c>
       <c r="M42" t="n">
-        <v>1025.119922845744</v>
+        <v>3659.984780604089</v>
       </c>
       <c r="N42" t="n">
-        <v>1652.717886400351</v>
+        <v>3678.660617711126</v>
       </c>
       <c r="O42" t="n">
-        <v>2204.627616639638</v>
+        <v>4230.570347950413</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.6905094135296</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7543264856228</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1820.203491470209</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.538274322277</v>
+        <v>1565.519003264322</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.121104285317</v>
+        <v>1276.101833227361</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.131553387299</v>
+        <v>1048.112282329344</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.338974243769</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="44">
@@ -7637,37 +7639,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7685,10 +7687,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,25 +7730,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2824.769373306003</v>
+        <v>2946.364478946742</v>
       </c>
       <c r="C46" t="n">
-        <v>2655.833190378096</v>
+        <v>2777.428296018835</v>
       </c>
       <c r="D46" t="n">
-        <v>2655.833190378096</v>
+        <v>2627.3116566065</v>
       </c>
       <c r="E46" t="n">
-        <v>2655.833190378096</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="F46" t="n">
-        <v>2655.833190378096</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="G46" t="n">
-        <v>2488.637091092976</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H46" t="n">
-        <v>2346.925259935174</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I46" t="n">
         <v>2337.686731866304</v>
@@ -7828,28 +7830,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>4630.779793209093</v>
       </c>
       <c r="S46" t="n">
-        <v>4507.978318053498</v>
+        <v>4447.924958863998</v>
       </c>
       <c r="T46" t="n">
-        <v>4288.376853076439</v>
+        <v>4228.323493886939</v>
       </c>
       <c r="U46" t="n">
-        <v>3999.301626420637</v>
+        <v>3939.248267231137</v>
       </c>
       <c r="V46" t="n">
-        <v>3744.61713821475</v>
+        <v>3684.56377902525</v>
       </c>
       <c r="W46" t="n">
-        <v>3455.19996817779</v>
+        <v>3395.14660898829</v>
       </c>
       <c r="X46" t="n">
-        <v>3227.210417279773</v>
+        <v>3167.157058090272</v>
       </c>
       <c r="Y46" t="n">
-        <v>3006.417838136243</v>
+        <v>2946.364478946742</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8064,10 +8066,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>231.2582814363235</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23267,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>92.12028678808278</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>55.74112246243956</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>91.59190980143154</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23738,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23890,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>65.0811505738412</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>78.31512318719916</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>146.8157004124957</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>85.27126880501643</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>125.5054897610402</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>266.2975548066613</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>40.32043864788476</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>22.81817176293492</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>185.0317184880958</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>84.77391660561915</v>
+        <v>39.05977172825688</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>103.9026168854319</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7587027673763</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25789,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>64.12421452922621</v>
       </c>
       <c r="V43" t="n">
-        <v>104.8770068749566</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.11969353038469</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>6.922421112516645</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>809664.8850928613</v>
+        <v>818577.7763444674</v>
       </c>
     </row>
     <row r="3">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>796117.0941729408</v>
+        <v>796117.0941729409</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>796117.0941729409</v>
+        <v>796117.0941729408</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448193</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="F2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="F2" t="n">
-        <v>625538.614759755</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="J2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>625538.614759755</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597546</v>
       </c>
       <c r="M2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="N2" t="n">
-        <v>625538.6147597551</v>
-      </c>
       <c r="O2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.614759755</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>203438.7416121061</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>49110.09270605451</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89134.17909312011</v>
+        <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.1790931201</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.1790931201</v>
+        <v>89134.17909312012</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768952</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
+        <v>9947.144321768959</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9947.144321768897</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9947.144321768897</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9947.144321768897</v>
+      </c>
+      <c r="L4" t="n">
         <v>9947.144321768899</v>
       </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
         <v>9947.144321768899</v>
       </c>
-      <c r="J4" t="n">
-        <v>9947.144321768899</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9947.144321768899</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>9947.144321768897</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9947.144321768897</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9947.144321768857</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-889505.4937372868</v>
+        <v>-709312.5947781662</v>
       </c>
       <c r="C6" t="n">
-        <v>439239.2519903062</v>
+        <v>235800.5103782001</v>
       </c>
       <c r="D6" t="n">
-        <v>439239.2519903062</v>
+        <v>439239.2519903058</v>
       </c>
       <c r="E6" t="n">
-        <v>189056.4788067236</v>
+        <v>189056.4788067243</v>
       </c>
       <c r="F6" t="n">
-        <v>514468.9406140791</v>
+        <v>514468.9406140788</v>
       </c>
       <c r="G6" t="n">
+        <v>514468.9406140787</v>
+      </c>
+      <c r="H6" t="n">
+        <v>514468.9406140787</v>
+      </c>
+      <c r="I6" t="n">
         <v>514468.9406140788</v>
       </c>
-      <c r="H6" t="n">
-        <v>514468.940614079</v>
-      </c>
-      <c r="I6" t="n">
-        <v>514468.940614079</v>
-      </c>
       <c r="J6" t="n">
-        <v>296937.7382168011</v>
+        <v>346863.7628040964</v>
       </c>
       <c r="K6" t="n">
-        <v>514468.9406140788</v>
+        <v>465358.8479080244</v>
       </c>
       <c r="L6" t="n">
         <v>514468.9406140786</v>
       </c>
       <c r="M6" t="n">
-        <v>429413.912678567</v>
+        <v>429413.9126785674</v>
       </c>
       <c r="N6" t="n">
-        <v>514468.9406140791</v>
+        <v>514468.9406140787</v>
       </c>
       <c r="O6" t="n">
+        <v>514468.9406140786</v>
+      </c>
+      <c r="P6" t="n">
         <v>514468.9406140788</v>
-      </c>
-      <c r="P6" t="n">
-        <v>514468.940614079</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,28 +26807,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>233.9200377128907</v>
       </c>
       <c r="X2" t="n">
-        <v>333.4040210617712</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>38.81546921401543</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>29.55623763649774</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>21.53009833793237</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>277.7117364082897</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27667,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.91322356906818</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,16 +27830,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>64.57611345179293</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>313.2424457679436</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>35.91585458371338</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>22.55889634858494</v>
       </c>
       <c r="H10" t="n">
-        <v>8.343935014434692</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28384,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28801,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>263.3189197138075</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>615.1181176946649</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,22 +32077,22 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>490.507583235568</v>
+        <v>339.3493584601599</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32318,34 +32320,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,13 +32542,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,34 +32557,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>601.0567753070487</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>254.8897444730604</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>139.5228722182826</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>328.9038320421819</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319848</v>
+        <v>651.5998000366021</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33420,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>379.4203056753698</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>489.2891832783074</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338202</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,16 +33997,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>181.6580975439405</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34131,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>150.2061940096327</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34450,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>622.4553810291975</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>136.4812930471408</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>483.7764056113316</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>351.9532034556938</v>
+        <v>200.7949786802858</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36205,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>469.7150632237154</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>116.3353646931863</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>8.181160134949316</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875403</v>
+        <v>509.0035555921577</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>237.2862717533515</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>357.9474711949741</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394598</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>18.86448192629938</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2502180.446876856</v>
+        <v>2498126.321117477</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>198.695791761159</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>115.3209310045223</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>191.1924583607142</v>
+        <v>77.21619667811684</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>360.4002717343294</v>
+        <v>79.91534106849849</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>23.41940999261053</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>221.6357247538199</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>258.6919098036071</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>179.9948012226677</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>143.4669119104433</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>71.67037196991666</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>124.4121185570315</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>194.4027115485082</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>134.1177455876056</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>61.97958965902473</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.3133845470784</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>19.88691958258289</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>263.7048265736561</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>67.10592483573218</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3612762946744</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>140.7058473537592</v>
+        <v>46.86766651429448</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>18.66234525555492</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>222.0602598600179</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>59.45282559760504</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1101.143993102105</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="C2" t="n">
-        <v>732.1814761616938</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="D2" t="n">
-        <v>373.9157775549433</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E2" t="n">
-        <v>373.9157775549433</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F2" t="n">
-        <v>366.9702768057398</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2236.937300965858</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1983.356240230038</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1652.293352886468</v>
       </c>
       <c r="W2" t="n">
-        <v>1861.209591427307</v>
+        <v>1299.524697616353</v>
       </c>
       <c r="X2" t="n">
-        <v>1487.743833166227</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="Y2" t="n">
-        <v>1487.743833166227</v>
+        <v>926.0589393552737</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>812.8918298888575</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>812.8918298888575</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>662.7751904765217</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941286</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962183</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4518,22 +4518,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1443.322424760645</v>
+        <v>1558.449961813773</v>
       </c>
       <c r="U4" t="n">
-        <v>1443.322424760645</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="V4" t="n">
-        <v>1443.322424760645</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="W4" t="n">
-        <v>1443.322424760645</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="X4" t="n">
-        <v>1215.332873862627</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="Y4" t="n">
-        <v>994.5402947190972</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1252.833343223197</v>
+        <v>1681.836054204827</v>
       </c>
       <c r="C5" t="n">
-        <v>1252.833343223197</v>
+        <v>1312.873537264416</v>
       </c>
       <c r="D5" t="n">
-        <v>894.5676446164464</v>
+        <v>1312.873537264416</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,16 +4567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4603,16 +4603,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.57251526313</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.433183287319</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>772.5608581015648</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C7" t="n">
-        <v>772.5608581015648</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
         <v>772.5608581015648</v>
@@ -4728,16 +4728,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1903.638578398987</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.60866391532</v>
+        <v>1903.638578398987</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484846</v>
+        <v>1903.638578398987</v>
       </c>
       <c r="U7" t="n">
-        <v>1289.967579036543</v>
+        <v>1614.535711524631</v>
       </c>
       <c r="V7" t="n">
-        <v>1289.967579036543</v>
+        <v>1614.535711524631</v>
       </c>
       <c r="W7" t="n">
-        <v>1000.550408999582</v>
+        <v>1325.11854148767</v>
       </c>
       <c r="X7" t="n">
-        <v>772.5608581015648</v>
+        <v>1325.11854148767</v>
       </c>
       <c r="Y7" t="n">
-        <v>772.5608581015648</v>
+        <v>1104.32596234414</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1458.811090838976</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>1089.848573898564</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>731.5828752918135</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>345.7946226935692</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>338.8491219443658</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>327.8170758297663</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3033.502222608318</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410103</v>
+        <v>2702.439335264748</v>
       </c>
       <c r="W8" t="n">
-        <v>2609.016021139989</v>
+        <v>2349.670679994633</v>
       </c>
       <c r="X8" t="n">
-        <v>2235.550262878909</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="Y8" t="n">
-        <v>1845.410930903097</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>753.6735467432887</v>
+        <v>752.7622949738575</v>
       </c>
       <c r="C10" t="n">
-        <v>753.6735467432887</v>
+        <v>583.8261120459506</v>
       </c>
       <c r="D10" t="n">
-        <v>603.556907330953</v>
+        <v>433.7094726336148</v>
       </c>
       <c r="E10" t="n">
-        <v>455.6438137485599</v>
+        <v>285.7963790512217</v>
       </c>
       <c r="F10" t="n">
-        <v>308.7538662506495</v>
+        <v>138.9064315533114</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>138.9064315533114</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>138.9064315533114</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484846</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V10" t="n">
-        <v>1224.739181610489</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W10" t="n">
-        <v>935.3220115735285</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>935.3220115735285</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y10" t="n">
-        <v>935.3220115735285</v>
+        <v>934.4107598040972</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.584050252739</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239595</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397181</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.21291626627</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>789.7592298206043</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C13" t="n">
-        <v>620.8230468926974</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803617</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F13" t="n">
         <v>175.9033664000583</v>
@@ -5196,16 +5196,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1420.189824692392</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>1192.200273794374</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>971.4076946508441</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="14">
@@ -5272,31 +5272,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5305,13 +5305,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>776.17510664033</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>788.0191461778176</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5478,10 +5478,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1008.811725321348</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>788.0191461778176</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.58852738579</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2231.58852738579</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>2726.914133601549</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3324.292621228101</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3951.890584782708</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>3997.30868757553</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.5380889459582</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>768.5380889459582</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>618.4214495336224</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>470.5083559512293</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>323.6184084533189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>156.4223091681989</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761979</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5740,16 +5740,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5758,46 +5758,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>782.841029837709</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C22" t="n">
-        <v>782.841029837709</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253733</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.4894946679487</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797068</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819248</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6016,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>782.841029837709</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1957.373282952344</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1702.688794746457</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1413.271624709496</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1185.282073811479</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.4894946679487</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,16 +6217,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2962.420792735044</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2793.484609807137</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>2793.484609807137</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>2793.484609807137</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3411.202922776591</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3183.213371878574</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>2962.420792735044</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>700.7543264856228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1620.602091394371</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1331.18492135741</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1103.195370459393</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>882.4027913158625</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6697,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>917.5010142286973</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>748.5648313007904</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>598.4481918884546</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>450.5350983060615</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1099.149479058937</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075813</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.7084350851671</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>527.7722521572603</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D37" t="n">
-        <v>377.6556127449245</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E37" t="n">
-        <v>377.6556127449245</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F37" t="n">
-        <v>377.6556127449245</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7171,10 +7171,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7256,25 +7256,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>801.6918836311989</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>651.5752442188632</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>503.6621506364701</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7405,25 +7405,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2233.355914590558</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2567.280686761779</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>3062.606292977538</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3659.984780604089</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3678.660617711126</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4230.570347950413</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1820.203491470209</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1565.519003264322</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.101833227361</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1048.112282329344</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2946.364478946742</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>2777.428296018835</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>2627.3116566065</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4630.779793209093</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4447.924958863998</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4228.323493886939</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>3939.248267231137</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>3684.56377902525</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>3395.14660898829</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>3167.157058090272</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>2946.364478946742</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8060,28 +8060,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>231.2582814363235</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>21.00892946589975</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>92.12028678808278</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>91.59190980143154</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>78.31512318719916</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.27126880501643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>266.2975548066613</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>22.81817176293492</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>185.0317184880958</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>39.05977172825688</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>24.81829093850965</v>
+        <v>118.6564717779744</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>126.7587027673763</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>64.12421452922621</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.922421112516645</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>796117.0941729409</v>
+        <v>796117.0941729408</v>
       </c>
     </row>
     <row r="9">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="F2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625538.6147597545</v>
+      </c>
+      <c r="H2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="H2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625538.6147597547</v>
-      </c>
       <c r="J2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597549</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121061</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605451</v>
+        <v>49110.09270605442</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.1790931202</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312012</v>
+        <v>89134.17909312023</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768952</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768959</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
@@ -26444,13 +26444,13 @@
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
+        <v>9947.144321768963</v>
+      </c>
+      <c r="L4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="L4" t="n">
-        <v>9947.144321768899</v>
-      </c>
       <c r="M4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-709312.5947781662</v>
+        <v>-709312.5947781659</v>
       </c>
       <c r="C6" t="n">
-        <v>235800.5103782001</v>
+        <v>235800.5103781999</v>
       </c>
       <c r="D6" t="n">
-        <v>439239.2519903058</v>
+        <v>439239.2519903061</v>
       </c>
       <c r="E6" t="n">
-        <v>189056.4788067243</v>
+        <v>188709.0995523667</v>
       </c>
       <c r="F6" t="n">
-        <v>514468.9406140788</v>
+        <v>514121.5613597216</v>
       </c>
       <c r="G6" t="n">
-        <v>514468.9406140787</v>
+        <v>514121.5613597215</v>
       </c>
       <c r="H6" t="n">
-        <v>514468.9406140787</v>
+        <v>514121.5613597219</v>
       </c>
       <c r="I6" t="n">
-        <v>514468.9406140788</v>
+        <v>514121.5613597219</v>
       </c>
       <c r="J6" t="n">
-        <v>346863.7628040964</v>
+        <v>346516.3835497393</v>
       </c>
       <c r="K6" t="n">
-        <v>465358.8479080244</v>
+        <v>465011.4686536674</v>
       </c>
       <c r="L6" t="n">
-        <v>514468.9406140786</v>
+        <v>514121.5613597219</v>
       </c>
       <c r="M6" t="n">
-        <v>429413.9126785674</v>
+        <v>429066.53342421</v>
       </c>
       <c r="N6" t="n">
-        <v>514468.9406140787</v>
+        <v>514121.5613597219</v>
       </c>
       <c r="O6" t="n">
-        <v>514468.9406140786</v>
+        <v>514121.5613597219</v>
       </c>
       <c r="P6" t="n">
-        <v>514468.9406140788</v>
+        <v>514121.5613597219</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>155.7118084757592</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>7.962393219074784</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>233.9200377128907</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,10 +27590,10 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>29.55623763649774</v>
+        <v>143.5324993190951</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>21.53009833793237</v>
+        <v>302.0150290037633</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>65.5127426774368</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>64.57611345179293</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>35.91585458371338</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>71.00037073623429</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>22.55889634858494</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>24.68204843992146</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,25 +31837,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N12" t="n">
-        <v>615.1181176946649</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>339.3493584601599</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>188.4731159523455</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>254.8897444730604</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33262,10 +33262,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>651.5998000366021</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33417,10 +33417,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>489.2891832783074</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,13 +33654,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,13 +33891,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33976,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>181.6580975439405</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34131,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34210,7 +34210,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>150.2061940096327</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>622.4553810291975</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N12" t="n">
-        <v>483.7764056113316</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>200.7949786802858</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>45.87687150790109</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>116.3353646931863</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>509.0035555921577</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,10 +37065,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>357.9474711949741</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,13 +37302,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,13 +37539,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37624,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37858,7 +37858,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>18.86448192629938</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2498126.321117477</v>
+        <v>2499886.851420261</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>57.74751945339647</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>198.695791761159</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>3.719009836034098</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>77.21619667811684</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>294.4231613584427</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>79.91534106849849</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>23.41940999261053</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>53.7634345605265</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>44.37321050886605</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>179.9948012226677</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>71.67037196991666</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>82.70057996958644</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994143001</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>124.4121185570315</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>139.5115415340516</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881303</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599955</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899574</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>46.86766651429448</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>181.3074675142875</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417134</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>83.06560892428207</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>926.0589393552737</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="C2" t="n">
-        <v>926.0589393552737</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="D2" t="n">
-        <v>926.0589393552737</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570294</v>
+        <v>532.2278653236212</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>121.2419605340137</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>109.5776142987066</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>109.5776142987066</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.937300965858</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>1983.356240230038</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1652.293352886468</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1299.524697616353</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>926.0589393552737</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>926.0589393552737</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429755</v>
+        <v>551.2876347907472</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744472</v>
+        <v>845.991191822219</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506774</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>942.700836942831</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>773.7646540149241</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>623.6480146025883</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>475.7349210201952</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>328.8449735222848</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>160.8585088305634</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4518,22 +4518,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1558.449961813773</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U4" t="n">
-        <v>1269.331624317611</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V4" t="n">
-        <v>1269.331624317611</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="W4" t="n">
-        <v>1269.331624317611</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="X4" t="n">
-        <v>1269.331624317611</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>1124.349301773071</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1681.836054204827</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C5" t="n">
-        <v>1312.873537264416</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1312.873537264416</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,10 +4564,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204827</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>922.6774975139006</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
         <v>922.6774975139006</v>
@@ -4716,13 +4716,13 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1903.638578398987</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1903.638578398987</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1903.638578398987</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1614.535711524631</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V7" t="n">
-        <v>1614.535711524631</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="W7" t="n">
-        <v>1325.11854148767</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="X7" t="n">
-        <v>1325.11854148767</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>1104.32596234414</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>950.1045973369969</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>564.3163447387526</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>153.330439949145</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,10 +4804,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3033.502222608318</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2702.439335264748</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2349.670679994633</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1976.204921733553</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738575</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C10" t="n">
-        <v>583.8261120459506</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336148</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512217</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533114</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>138.9064315533114</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>138.9064315533114</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882605</v>
+        <v>1843.758608725274</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947627</v>
+        <v>1326.351887790296</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040972</v>
+        <v>1105.559308646766</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,25 +5056,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459582</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>599.6019060180513</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>449.4852666057155</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>301.5721730233224</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5272,37 +5272,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5494,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>554.5813165460164</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>385.6451336181095</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E22" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5977,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6223,22 +6223,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362672</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C37" t="n">
-        <v>580.8993044876688</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D37" t="n">
-        <v>430.7826650753331</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E37" t="n">
-        <v>282.8695714929399</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>282.8695714929399</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,40 +7186,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241559</v>
+        <v>129.4330134067487</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-12</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>21.00892946589975</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>40.32043864788571</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>180.5336875992868</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>118.6564717779744</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>104.8770068749566</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393028</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>796117.0941729408</v>
+        <v>796117.0941729409</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>796117.0941729408</v>
+        <v>796117.0941729409</v>
       </c>
     </row>
     <row r="14">
@@ -26316,37 +26316,37 @@
         <v>636307.3716448202</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.37164482</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448193</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597549</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.741612106</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605442</v>
+        <v>49110.09270605448</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551201</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.1790931202</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312023</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768857</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
@@ -26438,13 +26438,13 @@
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768821</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768963</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
@@ -26453,7 +26453,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.14432176885</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-709312.5947781659</v>
+        <v>-709312.594778166</v>
       </c>
       <c r="C6" t="n">
-        <v>235800.5103781999</v>
+        <v>235800.5103782006</v>
       </c>
       <c r="D6" t="n">
-        <v>439239.2519903061</v>
+        <v>439239.2519903057</v>
       </c>
       <c r="E6" t="n">
-        <v>188709.0995523667</v>
+        <v>189021.7408812876</v>
       </c>
       <c r="F6" t="n">
-        <v>514121.5613597216</v>
+        <v>514434.202688643</v>
       </c>
       <c r="G6" t="n">
-        <v>514121.5613597215</v>
+        <v>514434.2026886431</v>
       </c>
       <c r="H6" t="n">
-        <v>514121.5613597219</v>
+        <v>514434.2026886431</v>
       </c>
       <c r="I6" t="n">
-        <v>514121.5613597219</v>
+        <v>514434.202688643</v>
       </c>
       <c r="J6" t="n">
-        <v>346516.3835497393</v>
+        <v>346829.0248786606</v>
       </c>
       <c r="K6" t="n">
-        <v>465011.4686536674</v>
+        <v>465324.1099825887</v>
       </c>
       <c r="L6" t="n">
-        <v>514121.5613597219</v>
+        <v>514434.2026886428</v>
       </c>
       <c r="M6" t="n">
-        <v>429066.53342421</v>
+        <v>429379.1747531309</v>
       </c>
       <c r="N6" t="n">
-        <v>514121.5613597219</v>
+        <v>514434.2026886431</v>
       </c>
       <c r="O6" t="n">
-        <v>514121.5613597219</v>
+        <v>514434.2026886432</v>
       </c>
       <c r="P6" t="n">
-        <v>514121.5613597219</v>
+        <v>514434.2026886431</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,43 +26789,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
+        <v>190.8166233022537</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.306832697356</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="J4" t="n">
+        <v>640.5848321000383</v>
+      </c>
+      <c r="K4" t="n">
         <v>190.8166233022539</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973557</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000387</v>
-      </c>
-      <c r="K4" t="n">
-        <v>190.8166233022537</v>
-      </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.962393219074023</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>7.962393219074784</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>143.5324993190947</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>143.5324993190951</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>88.31068030503786</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>302.0150290037633</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>65.5127426774368</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,10 +27833,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>198.3742087633015</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>366.5485151445874</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>71.00037073623429</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>24.68204843992146</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>169.4370633542416</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>-1.676880856393836e-12</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-1.913349478854798e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>397.6203974676407</v>
+        <v>316.0205096502335</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
